--- a/classfiers/bloated/svm/smote/bloated-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/bloated/svm/smote/bloated-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6211453744493393</v>
+        <v>0.6116504854368932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6409090909090909</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6308724832214766</v>
+        <v>0.6191646191646192</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6348553719008265</v>
+        <v>0.6232023959802976</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8758620689655172</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5772727272727273</v>
+        <v>0.635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6978021978021978</v>
+        <v>0.736231884057971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6309297520661157</v>
+        <v>0.6734328358208955</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0.585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.707774798927614</v>
+        <v>0.6985074626865672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6472107438016529</v>
+        <v>0.6339054726368158</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7471910112359551</v>
+        <v>0.8057553956834532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6073059360730594</v>
+        <v>0.5572139303482587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6700251889168766</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6376504773765047</v>
+        <v>0.59681592039801</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.92</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5181818181818182</v>
+        <v>0.572139303482587</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6589595375722543</v>
+        <v>0.7055214723926381</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5286218347862184</v>
+        <v>0.5822388059701493</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8035575665861719</v>
+        <v>0.8159869233505062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5887339144873391</v>
+        <v>0.5952437810945274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6730868412880838</v>
+        <v>0.6836497935427119</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6158536359862637</v>
+        <v>0.6219190861612336</v>
       </c>
     </row>
   </sheetData>
